--- a/docs/Festivos por Provincias 2025.xlsx
+++ b/docs/Festivos por Provincias 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programacion\github-davidbuenov\dbv-dias-festivos\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B30836D-CBE3-4B29-BB6E-93B928E7FC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A313DA-A20B-4E37-9FFE-821394E31E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22485" yWindow="4590" windowWidth="23790" windowHeight="7815" activeTab="1" xr2:uid="{3FDD346A-8FDA-45A4-B6B6-7F959D480C07}"/>
+    <workbookView xWindow="25380" yWindow="3795" windowWidth="23790" windowHeight="11595" activeTab="1" xr2:uid="{3FDD346A-8FDA-45A4-B6B6-7F959D480C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Consultar Dia y Provincia" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="195">
   <si>
     <t>Provincia</t>
   </si>
@@ -654,6 +654,9 @@
   </si>
   <si>
     <t>Calculos de la hoja Cáculo de días entre Fechas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1725,10 +1728,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F3ED0A-3233-45B4-AF15-2CE9C5D42B95}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1783,6 +1786,11 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="4"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
